--- a/src/MoslemToolkit/wwwroot/template/JamaahTemplate.xlsx
+++ b/src/MoslemToolkit/wwwroot/template/JamaahTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiment\MoslemToolkit\MoslemToolkit\wwwroot\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Experiment\MoslemToolkit\src\MoslemToolkit\wwwroot\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7946810-7D61-4D2A-AF37-5841E04ADEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F29EAFD-D528-47F9-8CD6-29546A9C8BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="941">
   <si>
     <t>No</t>
   </si>
@@ -130,9 +130,6 @@
     <t>17</t>
   </si>
   <si>
-    <t>Ade Darni</t>
-  </si>
-  <si>
     <t>ISTRI</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>147</t>
   </si>
   <si>
-    <t>Dani Jayasukmana</t>
-  </si>
-  <si>
     <t>danijayasukmana@gmail.com</t>
   </si>
   <si>
@@ -454,21 +448,12 @@
     <t>90</t>
   </si>
   <si>
-    <t>Endang Mufrihati</t>
-  </si>
-  <si>
     <t>143</t>
   </si>
   <si>
-    <t>Erlita Purnamasari</t>
-  </si>
-  <si>
     <t>167</t>
   </si>
   <si>
-    <t>Ernanto</t>
-  </si>
-  <si>
     <t>EKK019</t>
   </si>
   <si>
@@ -550,9 +535,6 @@
     <t>89</t>
   </si>
   <si>
-    <t>mifmasterz@yahoo.com</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -601,9 +583,6 @@
     <t>31</t>
   </si>
   <si>
-    <t>Jaka Suryana</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -640,9 +619,6 @@
     <t>85</t>
   </si>
   <si>
-    <t>Lely Endah Kumala</t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
@@ -667,9 +643,6 @@
     <t>127</t>
   </si>
   <si>
-    <t>Makmur</t>
-  </si>
-  <si>
     <t>MKK031</t>
   </si>
   <si>
@@ -682,9 +655,6 @@
     <t>112</t>
   </si>
   <si>
-    <t>Mida</t>
-  </si>
-  <si>
     <t>118</t>
   </si>
   <si>
@@ -745,9 +715,6 @@
     <t>36</t>
   </si>
   <si>
-    <t>Okky Windyasari</t>
-  </si>
-  <si>
     <t>193</t>
   </si>
   <si>
@@ -760,9 +727,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>Putra Nugraha Satria Utama</t>
-  </si>
-  <si>
     <t>PKK035</t>
   </si>
   <si>
@@ -799,9 +763,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Ratih Unjunan Sari</t>
-  </si>
-  <si>
     <t>151</t>
   </si>
   <si>
@@ -817,9 +778,6 @@
     <t>39</t>
   </si>
   <si>
-    <t>Resi Meitrisuri</t>
-  </si>
-  <si>
     <t>133</t>
   </si>
   <si>
@@ -838,9 +796,6 @@
     <t>213</t>
   </si>
   <si>
-    <t>Rubiyo</t>
-  </si>
-  <si>
     <t>142</t>
   </si>
   <si>
@@ -862,12 +817,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>Satria Manggala</t>
-  </si>
-  <si>
-    <t>satria555.sm@gmail.com</t>
-  </si>
-  <si>
     <t>150</t>
   </si>
   <si>
@@ -901,9 +850,6 @@
     <t>154</t>
   </si>
   <si>
-    <t>Sri Wahyuni</t>
-  </si>
-  <si>
     <t>65</t>
   </si>
   <si>
@@ -940,9 +886,6 @@
     <t>170</t>
   </si>
   <si>
-    <t>Yanti Nuryanti</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
@@ -961,9 +904,6 @@
     <t>99</t>
   </si>
   <si>
-    <t>Yusup Saputra</t>
-  </si>
-  <si>
     <t>176</t>
   </si>
   <si>
@@ -991,112 +931,22 @@
     <t>Bogor</t>
   </si>
   <si>
-    <t>Repal Sobadri</t>
-  </si>
-  <si>
-    <t>Dhea Pitaloka</t>
-  </si>
-  <si>
-    <t>Bayubadra Magananda</t>
-  </si>
-  <si>
-    <t>Dian ary kusumah</t>
-  </si>
-  <si>
-    <t>Choirul Sofianto</t>
-  </si>
-  <si>
-    <t>Lulu Fifi Nurdina</t>
-  </si>
-  <si>
-    <t>Muhammad Ibnu Fadhil</t>
-  </si>
-  <si>
-    <t>Amanda Putri</t>
-  </si>
-  <si>
-    <t>Wira Mandra Setia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bayubadra megananda </t>
-  </si>
-  <si>
     <t>Jember</t>
   </si>
   <si>
-    <t>Bayubadra megananda</t>
-  </si>
-  <si>
-    <t>Hendro</t>
-  </si>
-  <si>
-    <t>Nida</t>
-  </si>
-  <si>
-    <t>Zainal Abidin Masse</t>
-  </si>
-  <si>
-    <t>Imaria</t>
-  </si>
-  <si>
     <t>Sukabumi</t>
   </si>
   <si>
-    <t>Mellyza Novisari</t>
-  </si>
-  <si>
-    <t>Yogi Yogeswara</t>
-  </si>
-  <si>
-    <t>Fera Koes Rahayu</t>
-  </si>
-  <si>
-    <t>Dedi Wanto</t>
-  </si>
-  <si>
-    <t>Nok Khifdziyah</t>
-  </si>
-  <si>
     <t>Bantul</t>
   </si>
   <si>
     <t>Sidoarjo</t>
   </si>
   <si>
-    <t>Yanuar Santosa</t>
-  </si>
-  <si>
-    <t>Imelda Kemala Dewi</t>
-  </si>
-  <si>
-    <t>Hanryan Indrawira</t>
-  </si>
-  <si>
-    <t>Dodi</t>
-  </si>
-  <si>
-    <t>Risti</t>
-  </si>
-  <si>
     <t>Yogyakarta</t>
   </si>
   <si>
-    <t>Jody Mangun Raharjo</t>
-  </si>
-  <si>
     <t>Purbalingga</t>
-  </si>
-  <si>
-    <t>Sugino hadi purwanto</t>
-  </si>
-  <si>
-    <t>Marsini</t>
-  </si>
-  <si>
-    <t>Uka mulyana</t>
-  </si>
-  <si>
-    <t>Wiwin indah suminar</t>
   </si>
   <si>
     <t>Nama 1</t>
@@ -3529,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3598,13 +3448,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
@@ -3641,13 +3491,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>781</v>
+        <v>731</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>570</v>
+        <v>520</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
@@ -3662,7 +3512,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="7"/>
@@ -3682,13 +3532,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>571</v>
+        <v>521</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -3725,13 +3575,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>572</v>
+        <v>522</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
@@ -3768,20 +3618,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H6" s="9">
         <v>41880</v>
@@ -3793,15 +3643,11 @@
         <v>18</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>323</v>
-      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3817,13 +3663,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>574</v>
+        <v>524</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
@@ -3860,17 +3706,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -3878,10 +3724,10 @@
         <v>17</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
@@ -3889,7 +3735,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>22</v>
@@ -3903,13 +3749,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
@@ -3924,7 +3770,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>27</v>
@@ -3932,7 +3778,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -3946,17 +3792,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>366</v>
+        <v>316</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>791</v>
+        <v>741</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -3964,10 +3810,10 @@
         <v>17</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>30</v>
@@ -3975,7 +3821,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>22</v>
@@ -3984,25 +3830,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>578</v>
+        <v>528</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H11" s="11">
         <v>37839</v>
@@ -4011,22 +3857,18 @@
         <v>17</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>22</v>
@@ -4040,13 +3882,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>579</v>
+        <v>529</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
@@ -4069,7 +3911,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>22</v>
@@ -4083,17 +3925,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>580</v>
+        <v>530</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4104,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>30</v>
@@ -4112,7 +3954,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>22</v>
@@ -4126,13 +3968,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>581</v>
+        <v>531</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
@@ -4155,7 +3997,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>22</v>
@@ -4169,20 +4011,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>582</v>
+        <v>532</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H15" s="5">
         <v>41984</v>
@@ -4194,19 +4036,15 @@
         <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>22</v>
@@ -4220,17 +4058,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>583</v>
+        <v>533</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="5">
@@ -4240,16 +4078,16 @@
         <v>24</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>22</v>
@@ -4263,17 +4101,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>584</v>
+        <v>534</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -4281,10 +4119,10 @@
         <v>17</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>30</v>
@@ -4292,7 +4130,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
       <c r="O17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>22</v>
@@ -4306,13 +4144,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>796</v>
+        <v>746</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>585</v>
+        <v>535</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
@@ -4324,10 +4162,10 @@
         <v>17</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>27</v>
@@ -4335,7 +4173,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>22</v>
@@ -4349,20 +4187,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>586</v>
+        <v>536</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H19" s="11">
         <v>42627</v>
@@ -4371,22 +4209,18 @@
         <v>24</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>22</v>
@@ -4400,13 +4234,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>587</v>
+        <v>537</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -4421,7 +4255,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>30</v>
@@ -4429,7 +4263,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>22</v>
@@ -4443,13 +4277,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>377</v>
+        <v>327</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>588</v>
+        <v>538</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
@@ -4464,7 +4298,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>20</v>
@@ -4472,7 +4306,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>22</v>
@@ -4486,20 +4320,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>378</v>
+        <v>328</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>589</v>
+        <v>539</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H22" s="11">
         <v>36393</v>
@@ -4511,19 +4345,15 @@
         <v>18</v>
       </c>
       <c r="K22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>22</v>
@@ -4537,20 +4367,20 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>590</v>
+        <v>540</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H23" s="11">
         <v>37890</v>
@@ -4562,19 +4392,15 @@
         <v>18</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>305</v>
-      </c>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>22</v>
@@ -4588,17 +4414,17 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>591</v>
+        <v>541</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -4609,7 +4435,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>30</v>
@@ -4617,7 +4443,7 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>22</v>
@@ -4631,17 +4457,17 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>381</v>
+        <v>331</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>803</v>
+        <v>753</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>592</v>
+        <v>542</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -4649,10 +4475,10 @@
         <v>17</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>30</v>
@@ -4660,7 +4486,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>22</v>
@@ -4674,17 +4500,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>804</v>
+        <v>754</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -4695,7 +4521,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>30</v>
@@ -4703,7 +4529,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>22</v>
@@ -4717,17 +4543,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>805</v>
+        <v>755</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>594</v>
+        <v>544</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -4738,7 +4564,7 @@
         <v>18</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>30</v>
@@ -4746,7 +4572,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>22</v>
@@ -4760,17 +4586,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>384</v>
+        <v>334</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>595</v>
+        <v>545</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -4778,10 +4604,10 @@
         <v>17</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>30</v>
@@ -4789,7 +4615,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>22</v>
@@ -4803,13 +4629,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>596</v>
+        <v>546</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
@@ -4824,7 +4650,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>27</v>
@@ -4832,7 +4658,7 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>22</v>
@@ -4846,13 +4672,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>808</v>
+        <v>758</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>597</v>
+        <v>547</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3" t="s">
@@ -4867,7 +4693,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>30</v>
@@ -4875,7 +4701,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>22</v>
@@ -4889,17 +4715,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>598</v>
+        <v>548</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -4907,7 +4733,7 @@
         <v>17</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>26</v>
@@ -4918,7 +4744,7 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>22</v>
@@ -4932,17 +4758,17 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>388</v>
+        <v>338</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>599</v>
+        <v>549</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -4950,10 +4776,10 @@
         <v>17</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>30</v>
@@ -4961,7 +4787,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>22</v>
@@ -4970,25 +4796,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>389</v>
+        <v>339</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H33" s="11">
         <v>43617</v>
@@ -4997,22 +4823,18 @@
         <v>17</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>329</v>
-      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>22</v>
@@ -5026,17 +4848,17 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -5047,7 +4869,7 @@
         <v>18</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>30</v>
@@ -5055,7 +4877,7 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>22</v>
@@ -5069,17 +4891,17 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>391</v>
+        <v>341</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>602</v>
+        <v>552</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -5087,10 +4909,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>30</v>
@@ -5098,7 +4920,7 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>22</v>
@@ -5112,13 +4934,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>603</v>
+        <v>553</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
@@ -5133,7 +4955,7 @@
         <v>18</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>27</v>
@@ -5141,7 +4963,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>22</v>
@@ -5155,17 +4977,17 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>604</v>
+        <v>554</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -5173,10 +4995,10 @@
         <v>17</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>30</v>
@@ -5184,7 +5006,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>22</v>
@@ -5198,17 +5020,17 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>605</v>
+        <v>555</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="5">
@@ -5218,16 +5040,16 @@
         <v>17</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>22</v>
@@ -5241,20 +5063,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>395</v>
+        <v>345</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>606</v>
+        <v>556</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H39" s="11">
         <v>40676</v>
@@ -5263,20 +5085,16 @@
         <v>24</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>22</v>
@@ -5290,17 +5108,17 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>396</v>
+        <v>346</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>818</v>
+        <v>768</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -5308,10 +5126,10 @@
         <v>17</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>30</v>
@@ -5319,7 +5137,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>22</v>
@@ -5333,13 +5151,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>608</v>
+        <v>558</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
@@ -5354,7 +5172,7 @@
         <v>18</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>30</v>
@@ -5362,7 +5180,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>22</v>
@@ -5376,17 +5194,17 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>398</v>
+        <v>348</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>609</v>
+        <v>559</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -5394,10 +5212,10 @@
         <v>17</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>30</v>
@@ -5405,7 +5223,7 @@
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>22</v>
@@ -5419,13 +5237,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>821</v>
+        <v>771</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
@@ -5440,15 +5258,15 @@
         <v>18</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>22</v>
@@ -5462,17 +5280,17 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>822</v>
+        <v>772</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>611</v>
+        <v>561</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -5480,10 +5298,10 @@
         <v>17</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>30</v>
@@ -5491,7 +5309,7 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>22</v>
@@ -5505,17 +5323,17 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -5523,10 +5341,10 @@
         <v>17</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>30</v>
@@ -5534,7 +5352,7 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>22</v>
@@ -5548,13 +5366,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>824</v>
+        <v>774</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
@@ -5566,10 +5384,10 @@
         <v>17</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>30</v>
@@ -5577,7 +5395,7 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>22</v>
@@ -5586,25 +5404,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>825</v>
+        <v>775</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H47" s="11">
         <v>39708</v>
@@ -5613,22 +5431,18 @@
         <v>17</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>325</v>
-      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
       <c r="O47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>22</v>
@@ -5642,20 +5456,20 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>826</v>
+        <v>776</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H48" s="11">
         <v>40336</v>
@@ -5664,22 +5478,18 @@
         <v>24</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>22</v>
@@ -5693,17 +5503,17 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>827</v>
+        <v>777</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="5">
@@ -5713,16 +5523,16 @@
         <v>24</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>22</v>
@@ -5736,13 +5546,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
@@ -5757,15 +5567,15 @@
         <v>18</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>22</v>
@@ -5779,13 +5589,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>829</v>
+        <v>779</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
@@ -5800,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L51" s="3" t="s">
         <v>30</v>
@@ -5808,7 +5618,7 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>22</v>
@@ -5822,20 +5632,20 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>830</v>
+        <v>780</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="H52" s="11">
         <v>38779</v>
@@ -5847,19 +5657,15 @@
         <v>18</v>
       </c>
       <c r="K52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>22</v>
@@ -5873,17 +5679,15 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>409</v>
+        <v>359</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>831</v>
+        <v>781</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
         <v>10</v>
       </c>
@@ -5896,15 +5700,15 @@
         <v>18</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>22</v>
@@ -5918,17 +5722,17 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>832</v>
+        <v>782</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -5939,7 +5743,7 @@
         <v>18</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>30</v>
@@ -5947,7 +5751,7 @@
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>22</v>
@@ -5961,13 +5765,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
@@ -5982,15 +5786,15 @@
         <v>18</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>22</v>
@@ -6004,17 +5808,17 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -6022,10 +5826,10 @@
         <v>17</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>30</v>
@@ -6033,7 +5837,7 @@
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>22</v>
@@ -6047,13 +5851,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>624</v>
+        <v>574</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
@@ -6065,10 +5869,10 @@
         <v>17</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>20</v>
@@ -6076,7 +5880,7 @@
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>22</v>
@@ -6090,17 +5894,17 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -6108,10 +5912,10 @@
         <v>17</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>30</v>
@@ -6119,7 +5923,7 @@
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>22</v>
@@ -6133,17 +5937,17 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -6151,10 +5955,10 @@
         <v>17</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>30</v>
@@ -6162,7 +5966,7 @@
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>22</v>
@@ -6176,13 +5980,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>627</v>
+        <v>577</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
@@ -6197,15 +6001,15 @@
         <v>18</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>22</v>
@@ -6219,17 +6023,17 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6240,7 +6044,7 @@
         <v>18</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>30</v>
@@ -6248,7 +6052,7 @@
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>22</v>
@@ -6262,17 +6066,17 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -6280,10 +6084,10 @@
         <v>17</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>30</v>
@@ -6291,7 +6095,7 @@
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>22</v>
@@ -6305,13 +6109,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>841</v>
+        <v>791</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
@@ -6326,7 +6130,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L63" s="3" t="s">
         <v>20</v>
@@ -6334,7 +6138,7 @@
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>22</v>
@@ -6348,13 +6152,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>842</v>
+        <v>792</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>631</v>
+        <v>581</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
@@ -6369,7 +6173,7 @@
         <v>18</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>20</v>
@@ -6377,7 +6181,7 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>22</v>
@@ -6391,13 +6195,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>843</v>
+        <v>793</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
@@ -6411,16 +6215,16 @@
         <v>24</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>22</v>
@@ -6434,13 +6238,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>844</v>
+        <v>794</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>633</v>
+        <v>583</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
@@ -6452,10 +6256,10 @@
         <v>17</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>27</v>
@@ -6463,7 +6267,7 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>22</v>
@@ -6477,13 +6281,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>634</v>
+        <v>584</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
@@ -6498,7 +6302,7 @@
         <v>18</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L67" s="3" t="s">
         <v>30</v>
@@ -6506,7 +6310,7 @@
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>22</v>
@@ -6520,13 +6324,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>846</v>
+        <v>796</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
@@ -6541,15 +6345,15 @@
         <v>18</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>22</v>
@@ -6558,25 +6362,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>636</v>
+        <v>586</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H69" s="11">
         <v>40613</v>
@@ -6585,22 +6389,18 @@
         <v>17</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L69" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M69" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="N69" s="8" t="s">
-        <v>325</v>
-      </c>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
       <c r="O69" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>22</v>
@@ -6614,20 +6414,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>848</v>
+        <v>798</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>637</v>
+        <v>587</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H70" s="5">
         <v>36552</v>
@@ -6639,19 +6439,15 @@
         <v>18</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M70" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>335</v>
-      </c>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
       <c r="O70" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>22</v>
@@ -6665,17 +6461,17 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -6683,10 +6479,10 @@
         <v>17</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>30</v>
@@ -6694,7 +6490,7 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>22</v>
@@ -6708,17 +6504,17 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -6726,10 +6522,10 @@
         <v>17</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>30</v>
@@ -6737,7 +6533,7 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>22</v>
@@ -6751,17 +6547,17 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>851</v>
+        <v>801</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -6769,10 +6565,10 @@
         <v>17</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>30</v>
@@ -6780,7 +6576,7 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>22</v>
@@ -6794,13 +6590,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>852</v>
+        <v>802</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
@@ -6815,15 +6611,15 @@
         <v>18</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>22</v>
@@ -6837,13 +6633,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>642</v>
+        <v>592</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
@@ -6855,10 +6651,10 @@
         <v>17</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>27</v>
@@ -6866,7 +6662,7 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>22</v>
@@ -6880,17 +6676,17 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>854</v>
+        <v>804</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>643</v>
+        <v>593</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -6901,7 +6697,7 @@
         <v>18</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>30</v>
@@ -6909,7 +6705,7 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>22</v>
@@ -6923,17 +6719,17 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -6944,7 +6740,7 @@
         <v>18</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>30</v>
@@ -6952,7 +6748,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>22</v>
@@ -6966,17 +6762,17 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>856</v>
+        <v>806</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>645</v>
+        <v>595</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -6987,7 +6783,7 @@
         <v>18</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>30</v>
@@ -6995,7 +6791,7 @@
       <c r="M78" s="7"/>
       <c r="N78" s="7"/>
       <c r="O78" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>22</v>
@@ -7009,17 +6805,17 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>646</v>
+        <v>596</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -7027,10 +6823,10 @@
         <v>17</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>30</v>
@@ -7038,7 +6834,7 @@
       <c r="M79" s="7"/>
       <c r="N79" s="7"/>
       <c r="O79" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>22</v>
@@ -7052,20 +6848,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>647</v>
+        <v>597</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H80" s="12">
         <v>39661</v>
@@ -7074,22 +6870,18 @@
         <v>17</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M80" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>143</v>
-      </c>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
       <c r="O80" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>22</v>
@@ -7103,17 +6895,17 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>648</v>
+        <v>598</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -7121,10 +6913,10 @@
         <v>17</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>30</v>
@@ -7132,7 +6924,7 @@
       <c r="M81" s="7"/>
       <c r="N81" s="7"/>
       <c r="O81" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>22</v>
@@ -7146,17 +6938,17 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>649</v>
+        <v>599</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -7167,7 +6959,7 @@
         <v>18</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>30</v>
@@ -7175,7 +6967,7 @@
       <c r="M82" s="7"/>
       <c r="N82" s="7"/>
       <c r="O82" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>22</v>
@@ -7189,17 +6981,17 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>861</v>
+        <v>811</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>650</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -7207,10 +6999,10 @@
         <v>24</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>30</v>
@@ -7218,7 +7010,7 @@
       <c r="M83" s="7"/>
       <c r="N83" s="7"/>
       <c r="O83" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>22</v>
@@ -7232,17 +7024,17 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>651</v>
+        <v>601</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="5">
@@ -7255,13 +7047,13 @@
         <v>18</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="7"/>
       <c r="N84" s="7"/>
       <c r="O84" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>22</v>
@@ -7275,17 +7067,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -7293,10 +7085,10 @@
         <v>17</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>30</v>
@@ -7304,7 +7096,7 @@
       <c r="M85" s="7"/>
       <c r="N85" s="7"/>
       <c r="O85" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>22</v>
@@ -7318,17 +7110,17 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -7339,7 +7131,7 @@
         <v>18</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>30</v>
@@ -7347,7 +7139,7 @@
       <c r="M86" s="7"/>
       <c r="N86" s="7"/>
       <c r="O86" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>22</v>
@@ -7361,17 +7153,17 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>865</v>
+        <v>815</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>654</v>
+        <v>604</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="5">
@@ -7384,7 +7176,7 @@
         <v>18</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>30</v>
@@ -7392,7 +7184,7 @@
       <c r="M87" s="7"/>
       <c r="N87" s="7"/>
       <c r="O87" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>22</v>
@@ -7406,13 +7198,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>655</v>
+        <v>605</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
@@ -7427,7 +7219,7 @@
         <v>18</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>30</v>
@@ -7435,7 +7227,7 @@
       <c r="M88" s="7"/>
       <c r="N88" s="7"/>
       <c r="O88" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>22</v>
@@ -7449,13 +7241,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>867</v>
+        <v>817</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3" t="s">
@@ -7470,7 +7262,7 @@
         <v>18</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>20</v>
@@ -7478,7 +7270,7 @@
       <c r="M89" s="7"/>
       <c r="N89" s="7"/>
       <c r="O89" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>22</v>
@@ -7492,13 +7284,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3" t="s">
@@ -7513,15 +7305,15 @@
         <v>18</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M90" s="7"/>
       <c r="N90" s="7"/>
       <c r="O90" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>22</v>
@@ -7535,13 +7327,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3" t="s">
@@ -7564,7 +7356,7 @@
       <c r="M91" s="7"/>
       <c r="N91" s="7"/>
       <c r="O91" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>22</v>
@@ -7578,13 +7370,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3" t="s">
@@ -7599,15 +7391,15 @@
         <v>18</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M92" s="7"/>
       <c r="N92" s="7"/>
       <c r="O92" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>22</v>
@@ -7621,13 +7413,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>660</v>
+        <v>610</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3" t="s">
@@ -7644,15 +7436,15 @@
         <v>18</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M93" s="7"/>
       <c r="N93" s="7"/>
       <c r="O93" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>22</v>
@@ -7666,13 +7458,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>661</v>
+        <v>611</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3" t="s">
@@ -7687,7 +7479,7 @@
         <v>18</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>30</v>
@@ -7695,7 +7487,7 @@
       <c r="M94" s="7"/>
       <c r="N94" s="7"/>
       <c r="O94" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>22</v>
@@ -7709,13 +7501,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>662</v>
+        <v>612</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3" t="s">
@@ -7727,18 +7519,18 @@
         <v>17</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M95" s="7"/>
       <c r="N95" s="7"/>
       <c r="O95" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>22</v>
@@ -7752,17 +7544,15 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>175</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3" t="s">
         <v>10</v>
       </c>
@@ -7777,19 +7567,15 @@
         <v>18</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M96" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="N96" s="7" t="s">
-        <v>337</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
       <c r="O96" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>22</v>
@@ -7803,17 +7589,17 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -7824,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>30</v>
@@ -7832,7 +7618,7 @@
       <c r="M97" s="7"/>
       <c r="N97" s="7"/>
       <c r="O97" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>22</v>
@@ -7846,20 +7632,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="H98" s="11">
         <v>41168</v>
@@ -7868,22 +7654,18 @@
         <v>17</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M98" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="N98" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
       <c r="O98" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>22</v>
@@ -7897,17 +7679,17 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>877</v>
+        <v>827</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -7918,7 +7700,7 @@
         <v>18</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>30</v>
@@ -7926,7 +7708,7 @@
       <c r="M99" s="7"/>
       <c r="N99" s="7"/>
       <c r="O99" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>22</v>
@@ -7940,13 +7722,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3" t="s">
@@ -7958,10 +7740,10 @@
         <v>17</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>20</v>
@@ -7969,7 +7751,7 @@
       <c r="M100" s="7"/>
       <c r="N100" s="7"/>
       <c r="O100" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>22</v>
@@ -7983,17 +7765,17 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>668</v>
+        <v>618</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -8001,10 +7783,10 @@
         <v>17</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>30</v>
@@ -8012,7 +7794,7 @@
       <c r="M101" s="7"/>
       <c r="N101" s="7"/>
       <c r="O101" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>22</v>
@@ -8026,13 +7808,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3" t="s">
@@ -8047,7 +7829,7 @@
         <v>18</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>30</v>
@@ -8055,7 +7837,7 @@
       <c r="M102" s="7"/>
       <c r="N102" s="7"/>
       <c r="O102" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>22</v>
@@ -8069,17 +7851,17 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>670</v>
+        <v>620</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -8087,10 +7869,10 @@
         <v>17</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>30</v>
@@ -8098,7 +7880,7 @@
       <c r="M103" s="7"/>
       <c r="N103" s="7"/>
       <c r="O103" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>22</v>
@@ -8112,19 +7894,17 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>188</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="5">
@@ -8134,10 +7914,10 @@
         <v>17</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>30</v>
@@ -8145,7 +7925,7 @@
       <c r="M104" s="7"/>
       <c r="N104" s="7"/>
       <c r="O104" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>22</v>
@@ -8159,20 +7939,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>672</v>
+        <v>622</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H105" s="11">
         <v>42867</v>
@@ -8184,19 +7964,15 @@
         <v>18</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L105" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N105" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
       <c r="O105" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>22</v>
@@ -8210,13 +7986,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>673</v>
+        <v>623</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3" t="s">
@@ -8228,18 +8004,18 @@
         <v>17</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M106" s="7"/>
       <c r="N106" s="7"/>
       <c r="O106" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>22</v>
@@ -8253,17 +8029,17 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -8274,7 +8050,7 @@
         <v>18</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>30</v>
@@ -8282,7 +8058,7 @@
       <c r="M107" s="7"/>
       <c r="N107" s="7"/>
       <c r="O107" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>22</v>
@@ -8296,17 +8072,17 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>675</v>
+        <v>625</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -8317,7 +8093,7 @@
         <v>18</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>30</v>
@@ -8325,7 +8101,7 @@
       <c r="M108" s="7"/>
       <c r="N108" s="7"/>
       <c r="O108" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>22</v>
@@ -8339,17 +8115,17 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>887</v>
+        <v>837</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>676</v>
+        <v>626</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -8360,7 +8136,7 @@
         <v>18</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>30</v>
@@ -8368,7 +8144,7 @@
       <c r="M109" s="7"/>
       <c r="N109" s="7"/>
       <c r="O109" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>22</v>
@@ -8382,13 +8158,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>888</v>
+        <v>838</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>677</v>
+        <v>627</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3" t="s">
@@ -8400,18 +8176,18 @@
         <v>17</v>
       </c>
       <c r="J110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K110" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K110" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L110" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M110" s="7"/>
       <c r="N110" s="7"/>
       <c r="O110" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="P110" s="3" t="s">
         <v>22</v>
@@ -8425,13 +8201,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>678</v>
+        <v>628</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3" t="s">
@@ -8443,18 +8219,18 @@
         <v>17</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M111" s="7"/>
       <c r="N111" s="7"/>
       <c r="O111" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>22</v>
@@ -8468,17 +8244,17 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>679</v>
+        <v>629</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -8486,10 +8262,10 @@
         <v>17</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>30</v>
@@ -8497,7 +8273,7 @@
       <c r="M112" s="7"/>
       <c r="N112" s="7"/>
       <c r="O112" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>22</v>
@@ -8511,17 +8287,17 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="5">
@@ -8531,16 +8307,16 @@
         <v>24</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L113" s="3"/>
       <c r="M113" s="7"/>
       <c r="N113" s="7"/>
       <c r="O113" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>22</v>
@@ -8554,20 +8330,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H114" s="11">
         <v>39701</v>
@@ -8576,22 +8352,18 @@
         <v>24</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L114" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M114" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="N114" s="8" t="s">
-        <v>145</v>
-      </c>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
       <c r="O114" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>22</v>
@@ -8605,17 +8377,17 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>682</v>
+        <v>632</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -8623,10 +8395,10 @@
         <v>17</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L115" s="3" t="s">
         <v>30</v>
@@ -8634,7 +8406,7 @@
       <c r="M115" s="7"/>
       <c r="N115" s="7"/>
       <c r="O115" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>22</v>
@@ -8648,20 +8420,20 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>683</v>
+        <v>633</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H116" s="11">
         <v>40046</v>
@@ -8673,19 +8445,15 @@
         <v>18</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M116" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="N116" s="13" t="s">
-        <v>341</v>
-      </c>
+      <c r="M116" s="13"/>
+      <c r="N116" s="13"/>
       <c r="O116" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>22</v>
@@ -8699,17 +8467,17 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="5">
@@ -8719,10 +8487,10 @@
         <v>17</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L117" s="14" t="s">
         <v>30</v>
@@ -8730,7 +8498,7 @@
       <c r="M117" s="7"/>
       <c r="N117" s="7"/>
       <c r="O117" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>22</v>
@@ -8744,17 +8512,17 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>685</v>
+        <v>635</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -8765,7 +8533,7 @@
         <v>18</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L118" s="15" t="s">
         <v>30</v>
@@ -8773,7 +8541,7 @@
       <c r="M118" s="16"/>
       <c r="N118" s="16"/>
       <c r="O118" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>22</v>
@@ -8787,13 +8555,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3" t="s">
@@ -8816,7 +8584,7 @@
       <c r="M119" s="7"/>
       <c r="N119" s="7"/>
       <c r="O119" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>22</v>
@@ -8830,17 +8598,17 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>687</v>
+        <v>637</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -8848,10 +8616,10 @@
         <v>17</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L120" s="3" t="s">
         <v>30</v>
@@ -8859,7 +8627,7 @@
       <c r="M120" s="7"/>
       <c r="N120" s="7"/>
       <c r="O120" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>22</v>
@@ -8873,17 +8641,17 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>688</v>
+        <v>638</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -8894,7 +8662,7 @@
         <v>18</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L121" s="3" t="s">
         <v>30</v>
@@ -8902,7 +8670,7 @@
       <c r="M121" s="7"/>
       <c r="N121" s="7"/>
       <c r="O121" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>22</v>
@@ -8916,17 +8684,17 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>689</v>
+        <v>639</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -8937,7 +8705,7 @@
         <v>18</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>30</v>
@@ -8945,7 +8713,7 @@
       <c r="M122" s="7"/>
       <c r="N122" s="7"/>
       <c r="O122" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>22</v>
@@ -8959,17 +8727,17 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>901</v>
+        <v>851</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -8977,10 +8745,10 @@
         <v>17</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>30</v>
@@ -8988,7 +8756,7 @@
       <c r="M123" s="7"/>
       <c r="N123" s="7"/>
       <c r="O123" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>22</v>
@@ -9002,13 +8770,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>691</v>
+        <v>641</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3" t="s">
@@ -9020,10 +8788,10 @@
         <v>17</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>20</v>
@@ -9031,7 +8799,7 @@
       <c r="M124" s="7"/>
       <c r="N124" s="7"/>
       <c r="O124" s="3" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>22</v>
@@ -9045,17 +8813,17 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -9088,17 +8856,17 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>482</v>
+        <v>432</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -9109,7 +8877,7 @@
         <v>18</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>30</v>
@@ -9117,7 +8885,7 @@
       <c r="M126" s="7"/>
       <c r="N126" s="7"/>
       <c r="O126" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>22</v>
@@ -9131,17 +8899,17 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -9149,10 +8917,10 @@
         <v>17</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>30</v>
@@ -9160,7 +8928,7 @@
       <c r="M127" s="7"/>
       <c r="N127" s="7"/>
       <c r="O127" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>22</v>
@@ -9174,13 +8942,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>484</v>
+        <v>434</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>695</v>
+        <v>645</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3" t="s">
@@ -9195,15 +8963,15 @@
         <v>18</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M128" s="7"/>
       <c r="N128" s="7"/>
       <c r="O128" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>22</v>
@@ -9217,17 +8985,17 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -9235,10 +9003,10 @@
         <v>17</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>30</v>
@@ -9246,7 +9014,7 @@
       <c r="M129" s="7"/>
       <c r="N129" s="7"/>
       <c r="O129" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>22</v>
@@ -9260,17 +9028,17 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>486</v>
+        <v>436</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>697</v>
+        <v>647</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -9281,7 +9049,7 @@
         <v>18</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>30</v>
@@ -9289,7 +9057,7 @@
       <c r="M130" s="7"/>
       <c r="N130" s="7"/>
       <c r="O130" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="P130" s="3" t="s">
         <v>22</v>
@@ -9303,17 +9071,17 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>487</v>
+        <v>437</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>909</v>
+        <v>859</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>698</v>
+        <v>648</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -9321,10 +9089,10 @@
         <v>17</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>30</v>
@@ -9332,7 +9100,7 @@
       <c r="M131" s="7"/>
       <c r="N131" s="7"/>
       <c r="O131" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>22</v>
@@ -9346,13 +9114,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>699</v>
+        <v>649</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3" t="s">
@@ -9364,18 +9132,18 @@
         <v>17</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M132" s="7"/>
       <c r="N132" s="7"/>
       <c r="O132" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>22</v>
@@ -9389,17 +9157,17 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>489</v>
+        <v>439</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -9410,7 +9178,7 @@
         <v>18</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>30</v>
@@ -9418,7 +9186,7 @@
       <c r="M133" s="7"/>
       <c r="N133" s="7"/>
       <c r="O133" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>22</v>
@@ -9432,20 +9200,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>701</v>
+        <v>651</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H134" s="11">
         <v>41937</v>
@@ -9454,22 +9222,18 @@
         <v>17</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M134" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>219</v>
-      </c>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
       <c r="O134" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>22</v>
@@ -9483,17 +9247,17 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>491</v>
+        <v>441</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>913</v>
+        <v>863</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>702</v>
+        <v>652</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -9504,7 +9268,7 @@
         <v>18</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>30</v>
@@ -9512,7 +9276,7 @@
       <c r="M135" s="7"/>
       <c r="N135" s="7"/>
       <c r="O135" s="3" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>22</v>
@@ -9526,20 +9290,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H136" s="5">
         <v>40744</v>
@@ -9551,19 +9315,15 @@
         <v>18</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M136" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="N136" s="8" t="s">
-        <v>258</v>
-      </c>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
       <c r="O136" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>22</v>
@@ -9577,20 +9337,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>915</v>
+        <v>865</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>704</v>
+        <v>654</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H137" s="5">
         <v>41950</v>
@@ -9602,17 +9362,13 @@
         <v>18</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L137" s="3"/>
-      <c r="M137" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N137" s="8" t="s">
-        <v>343</v>
-      </c>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
       <c r="O137" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>22</v>
@@ -9626,20 +9382,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="H138" s="11">
         <v>38736</v>
@@ -9648,22 +9404,18 @@
         <v>17</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M138" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N138" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
       <c r="O138" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>22</v>
@@ -9677,20 +9429,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>495</v>
+        <v>445</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="H139" s="11">
         <v>41180</v>
@@ -9699,22 +9451,18 @@
         <v>17</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M139" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="N139" s="8" t="s">
-        <v>347</v>
-      </c>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
       <c r="O139" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>22</v>
@@ -9728,13 +9476,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>496</v>
+        <v>446</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3" t="s">
@@ -9749,7 +9497,7 @@
         <v>18</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>27</v>
@@ -9757,7 +9505,7 @@
       <c r="M140" s="7"/>
       <c r="N140" s="7"/>
       <c r="O140" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>22</v>
@@ -9771,17 +9519,17 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>497</v>
+        <v>447</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -9789,10 +9537,10 @@
         <v>17</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>30</v>
@@ -9800,7 +9548,7 @@
       <c r="M141" s="7"/>
       <c r="N141" s="7"/>
       <c r="O141" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>22</v>
@@ -9814,17 +9562,17 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>498</v>
+        <v>448</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>709</v>
+        <v>659</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -9835,7 +9583,7 @@
         <v>18</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>30</v>
@@ -9843,7 +9591,7 @@
       <c r="M142" s="7"/>
       <c r="N142" s="7"/>
       <c r="O142" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>22</v>
@@ -9857,17 +9605,17 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>499</v>
+        <v>449</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>710</v>
+        <v>660</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -9875,7 +9623,7 @@
         <v>17</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K143" s="3" t="s">
         <v>19</v>
@@ -9900,17 +9648,17 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>711</v>
+        <v>661</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -9918,10 +9666,10 @@
         <v>17</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>30</v>
@@ -9929,7 +9677,7 @@
       <c r="M144" s="7"/>
       <c r="N144" s="7"/>
       <c r="O144" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>22</v>
@@ -9943,17 +9691,17 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>712</v>
+        <v>662</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -9964,7 +9712,7 @@
         <v>18</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>30</v>
@@ -9972,7 +9720,7 @@
       <c r="M145" s="7"/>
       <c r="N145" s="7"/>
       <c r="O145" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>22</v>
@@ -9986,13 +9734,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>713</v>
+        <v>663</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3" t="s">
@@ -10015,7 +9763,7 @@
       <c r="M146" s="7"/>
       <c r="N146" s="7"/>
       <c r="O146" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>22</v>
@@ -10029,17 +9777,17 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>503</v>
+        <v>453</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>714</v>
+        <v>664</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -10047,10 +9795,10 @@
         <v>17</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>30</v>
@@ -10058,7 +9806,7 @@
       <c r="M147" s="7"/>
       <c r="N147" s="7"/>
       <c r="O147" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>22</v>
@@ -10072,13 +9820,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>504</v>
+        <v>454</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>715</v>
+        <v>665</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3" t="s">
@@ -10093,7 +9841,7 @@
         <v>18</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>30</v>
@@ -10101,7 +9849,7 @@
       <c r="M148" s="7"/>
       <c r="N148" s="7"/>
       <c r="O148" s="3" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>22</v>
@@ -10115,20 +9863,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>505</v>
+        <v>455</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>716</v>
+        <v>666</v>
       </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H149" s="17">
         <v>38589</v>
@@ -10140,19 +9888,15 @@
         <v>18</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M149" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="N149" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
       <c r="O149" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>22</v>
@@ -10166,17 +9910,17 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>928</v>
+        <v>878</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="14" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -10187,7 +9931,7 @@
         <v>18</v>
       </c>
       <c r="K150" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L150" s="14" t="s">
         <v>30</v>
@@ -10195,7 +9939,7 @@
       <c r="M150" s="7"/>
       <c r="N150" s="7"/>
       <c r="O150" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P150" s="3" t="s">
         <v>22</v>
@@ -10209,13 +9953,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>507</v>
+        <v>457</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>718</v>
+        <v>668</v>
       </c>
       <c r="E151" s="15"/>
       <c r="F151" s="15" t="s">
@@ -10230,15 +9974,15 @@
         <v>18</v>
       </c>
       <c r="K151" s="15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L151" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M151" s="16"/>
       <c r="N151" s="16"/>
       <c r="O151" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P151" s="3" t="s">
         <v>22</v>
@@ -10252,17 +9996,17 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>508</v>
+        <v>458</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>719</v>
+        <v>669</v>
       </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -10270,10 +10014,10 @@
         <v>17</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L152" s="3" t="s">
         <v>30</v>
@@ -10281,7 +10025,7 @@
       <c r="M152" s="7"/>
       <c r="N152" s="7"/>
       <c r="O152" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P152" s="3" t="s">
         <v>22</v>
@@ -10295,20 +10039,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>509</v>
+        <v>459</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H153" s="11">
         <v>39292</v>
@@ -10320,19 +10064,15 @@
         <v>18</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L153" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M153" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="N153" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
       <c r="O153" s="3" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="P153" s="3" t="s">
         <v>22</v>
@@ -10346,13 +10086,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>510</v>
+        <v>460</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3" t="s">
@@ -10367,7 +10107,7 @@
         <v>18</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>27</v>
@@ -10375,7 +10115,7 @@
       <c r="M154" s="7"/>
       <c r="N154" s="7"/>
       <c r="O154" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="P154" s="3" t="s">
         <v>22</v>
@@ -10384,25 +10124,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>511</v>
+        <v>461</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>722</v>
+        <v>672</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H155" s="11">
         <v>41733</v>
@@ -10411,22 +10151,18 @@
         <v>17</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M155" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="N155" s="8" t="s">
-        <v>329</v>
-      </c>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
       <c r="O155" s="3" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="P155" s="3" t="s">
         <v>22</v>
@@ -10435,25 +10171,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H156" s="11">
         <v>40369</v>
@@ -10465,19 +10201,15 @@
         <v>18</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M156" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N156" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="M156" s="8"/>
+      <c r="N156" s="8"/>
       <c r="O156" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P156" s="3" t="s">
         <v>22</v>
@@ -10486,25 +10218,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>513</v>
+        <v>463</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>724</v>
+        <v>674</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H157" s="11">
         <v>42942</v>
@@ -10516,19 +10248,15 @@
         <v>18</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M157" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N157" s="8" t="s">
-        <v>264</v>
-      </c>
+      <c r="M157" s="8"/>
+      <c r="N157" s="8"/>
       <c r="O157" s="3" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P157" s="3" t="s">
         <v>22</v>
@@ -10542,13 +10270,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>514</v>
+        <v>464</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>725</v>
+        <v>675</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
@@ -10565,7 +10293,7 @@
         <v>18</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>27</v>
@@ -10573,7 +10301,7 @@
       <c r="M158" s="7"/>
       <c r="N158" s="7"/>
       <c r="O158" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="P158" s="3" t="s">
         <v>22</v>
@@ -10587,20 +10315,20 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>515</v>
+        <v>465</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H159" s="11">
         <v>41771</v>
@@ -10612,19 +10340,15 @@
         <v>18</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M159" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="N159" s="8" t="s">
-        <v>339</v>
-      </c>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
       <c r="O159" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="P159" s="3" t="s">
         <v>22</v>
@@ -10638,17 +10362,17 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>727</v>
+        <v>677</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" s="3"/>
       <c r="H160" s="5">
@@ -10658,10 +10382,10 @@
         <v>17</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>30</v>
@@ -10669,7 +10393,7 @@
       <c r="M160" s="7"/>
       <c r="N160" s="7"/>
       <c r="O160" s="3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="P160" s="3" t="s">
         <v>22</v>
@@ -10683,17 +10407,17 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>517</v>
+        <v>467</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>728</v>
+        <v>678</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -10701,10 +10425,10 @@
         <v>17</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>30</v>
@@ -10712,7 +10436,7 @@
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
       <c r="O161" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="P161" s="3" t="s">
         <v>22</v>
@@ -10726,17 +10450,17 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>729</v>
+        <v>679</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -10744,10 +10468,10 @@
         <v>17</v>
       </c>
       <c r="J162" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>30</v>
@@ -10755,7 +10479,7 @@
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
       <c r="O162" s="3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="P162" s="3" t="s">
         <v>22</v>
@@ -10769,17 +10493,17 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>730</v>
+        <v>680</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G163" s="3"/>
       <c r="H163" s="5">
@@ -10789,10 +10513,10 @@
         <v>24</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>30</v>
@@ -10800,7 +10524,7 @@
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
       <c r="O163" s="3" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P163" s="3" t="s">
         <v>22</v>
@@ -10814,17 +10538,17 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>942</v>
+        <v>892</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>731</v>
+        <v>681</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -10832,10 +10556,10 @@
         <v>17</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>30</v>
@@ -10843,7 +10567,7 @@
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
       <c r="O164" s="3" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="P164" s="3" t="s">
         <v>22</v>
@@ -10857,17 +10581,17 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>943</v>
+        <v>893</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -10878,7 +10602,7 @@
         <v>18</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>30</v>
@@ -10886,7 +10610,7 @@
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
       <c r="O165" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>22</v>
@@ -10900,17 +10624,17 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>522</v>
+        <v>472</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>944</v>
+        <v>894</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>733</v>
+        <v>683</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -10921,7 +10645,7 @@
         <v>18</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>30</v>
@@ -10929,7 +10653,7 @@
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
       <c r="O166" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="P166" s="3" t="s">
         <v>22</v>
@@ -10943,13 +10667,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>734</v>
+        <v>684</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3" t="s">
@@ -10964,7 +10688,7 @@
         <v>18</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>30</v>
@@ -10972,7 +10696,7 @@
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
       <c r="O167" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="P167" s="3" t="s">
         <v>22</v>
@@ -10986,17 +10710,17 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>524</v>
+        <v>474</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>735</v>
+        <v>685</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -11004,10 +10728,10 @@
         <v>17</v>
       </c>
       <c r="J168" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>30</v>
@@ -11015,7 +10739,7 @@
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
       <c r="O168" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="P168" s="3" t="s">
         <v>22</v>
@@ -11029,17 +10753,17 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>525</v>
+        <v>475</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>947</v>
+        <v>897</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>736</v>
+        <v>686</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -11050,7 +10774,7 @@
         <v>18</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>30</v>
@@ -11058,7 +10782,7 @@
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
       <c r="O169" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="P169" s="3" t="s">
         <v>22</v>
@@ -11072,20 +10796,20 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>526</v>
+        <v>476</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H170" s="9">
         <v>42763</v>
@@ -11094,20 +10818,16 @@
         <v>24</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L170" s="3"/>
-      <c r="M170" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="N170" s="8" t="s">
-        <v>350</v>
-      </c>
+      <c r="M170" s="8"/>
+      <c r="N170" s="8"/>
       <c r="O170" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P170" s="3" t="s">
         <v>22</v>
@@ -11121,13 +10841,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>527</v>
+        <v>477</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>738</v>
+        <v>688</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="14" t="s">
@@ -11142,15 +10862,15 @@
         <v>18</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M171" s="7"/>
       <c r="N171" s="7"/>
       <c r="O171" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="P171" s="3" t="s">
         <v>22</v>
@@ -11164,20 +10884,20 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>528</v>
+        <v>478</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>739</v>
+        <v>689</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H172" s="19">
         <v>41794</v>
@@ -11186,22 +10906,18 @@
         <v>24</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M172" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="N172" s="8" t="s">
-        <v>327</v>
-      </c>
+      <c r="M172" s="8"/>
+      <c r="N172" s="8"/>
       <c r="O172" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>22</v>
@@ -11215,17 +10931,17 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>529</v>
+        <v>479</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>740</v>
+        <v>690</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -11233,10 +10949,10 @@
         <v>17</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>30</v>
@@ -11244,7 +10960,7 @@
       <c r="M173" s="7"/>
       <c r="N173" s="7"/>
       <c r="O173" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="P173" s="3" t="s">
         <v>22</v>
@@ -11258,17 +10974,17 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>530</v>
+        <v>480</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>741</v>
+        <v>691</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -11276,10 +10992,10 @@
         <v>17</v>
       </c>
       <c r="J174" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>30</v>
@@ -11287,7 +11003,7 @@
       <c r="M174" s="7"/>
       <c r="N174" s="7"/>
       <c r="O174" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>22</v>
@@ -11301,17 +11017,17 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -11319,10 +11035,10 @@
         <v>17</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>30</v>
@@ -11330,7 +11046,7 @@
       <c r="M175" s="7"/>
       <c r="N175" s="7"/>
       <c r="O175" s="3" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="P175" s="3" t="s">
         <v>22</v>
@@ -11344,20 +11060,20 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>743</v>
+        <v>693</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H176" s="11">
         <v>38267</v>
@@ -11366,22 +11082,18 @@
         <v>17</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M176" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N176" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="M176" s="8"/>
+      <c r="N176" s="8"/>
       <c r="O176" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="P176" s="3" t="s">
         <v>22</v>
@@ -11395,17 +11107,17 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>955</v>
+        <v>905</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>744</v>
+        <v>694</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -11413,10 +11125,10 @@
         <v>17</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>30</v>
@@ -11424,7 +11136,7 @@
       <c r="M177" s="7"/>
       <c r="N177" s="7"/>
       <c r="O177" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="P177" s="3" t="s">
         <v>22</v>
@@ -11438,17 +11150,15 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>956</v>
+        <v>906</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>280</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="E178" s="3"/>
       <c r="F178" s="3" t="s">
         <v>10</v>
       </c>
@@ -11463,15 +11173,15 @@
         <v>18</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M178" s="7"/>
       <c r="N178" s="7"/>
       <c r="O178" s="3" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="P178" s="3" t="s">
         <v>22</v>
@@ -11485,13 +11195,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>957</v>
+        <v>907</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>746</v>
+        <v>696</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3" t="s">
@@ -11503,10 +11213,10 @@
         <v>17</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>30</v>
@@ -11514,7 +11224,7 @@
       <c r="M179" s="7"/>
       <c r="N179" s="7"/>
       <c r="O179" s="3" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="P179" s="3" t="s">
         <v>22</v>
@@ -11528,17 +11238,17 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>747</v>
+        <v>697</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -11546,10 +11256,10 @@
         <v>17</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>30</v>
@@ -11557,7 +11267,7 @@
       <c r="M180" s="7"/>
       <c r="N180" s="7"/>
       <c r="O180" s="3" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="P180" s="3" t="s">
         <v>22</v>
@@ -11571,20 +11281,20 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>748</v>
+        <v>698</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H181" s="11">
         <v>42581</v>
@@ -11593,22 +11303,18 @@
         <v>24</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M181" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="N181" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
       <c r="O181" s="3" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="P181" s="3" t="s">
         <v>22</v>
@@ -11622,20 +11328,20 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>960</v>
+        <v>910</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>749</v>
+        <v>699</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H182" s="11">
         <v>39900</v>
@@ -11644,22 +11350,18 @@
         <v>24</v>
       </c>
       <c r="J182" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K182" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K182" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L182" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M182" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="N182" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
       <c r="O182" s="3" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="P182" s="3" t="s">
         <v>22</v>
@@ -11673,13 +11375,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>961</v>
+        <v>911</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3" t="s">
@@ -11694,7 +11396,7 @@
         <v>18</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>30</v>
@@ -11702,7 +11404,7 @@
       <c r="M183" s="7"/>
       <c r="N183" s="7"/>
       <c r="O183" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="P183" s="3" t="s">
         <v>22</v>
@@ -11716,17 +11418,17 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>751</v>
+        <v>701</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -11734,10 +11436,10 @@
         <v>17</v>
       </c>
       <c r="J184" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>30</v>
@@ -11745,7 +11447,7 @@
       <c r="M184" s="7"/>
       <c r="N184" s="7"/>
       <c r="O184" s="3" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="P184" s="3" t="s">
         <v>22</v>
@@ -11759,13 +11461,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>963</v>
+        <v>913</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>752</v>
+        <v>702</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3" t="s">
@@ -11777,10 +11479,10 @@
         <v>17</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>27</v>
@@ -11788,7 +11490,7 @@
       <c r="M185" s="7"/>
       <c r="N185" s="7"/>
       <c r="O185" s="3" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="P185" s="3" t="s">
         <v>22</v>
@@ -11802,13 +11504,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>753</v>
+        <v>703</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3" t="s">
@@ -11825,15 +11527,15 @@
         <v>18</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M186" s="7"/>
       <c r="N186" s="7"/>
       <c r="O186" s="3" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="P186" s="3" t="s">
         <v>22</v>
@@ -11847,17 +11549,17 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>965</v>
+        <v>915</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>754</v>
+        <v>704</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -11865,10 +11567,10 @@
         <v>17</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>30</v>
@@ -11876,7 +11578,7 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
       <c r="O187" s="3" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="P187" s="3" t="s">
         <v>22</v>
@@ -11890,13 +11592,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>755</v>
+        <v>705</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3" t="s">
@@ -11908,10 +11610,10 @@
         <v>17</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>20</v>
@@ -11919,7 +11621,7 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="O188" s="3" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="P188" s="3" t="s">
         <v>22</v>
@@ -11933,17 +11635,17 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>967</v>
+        <v>917</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>756</v>
+        <v>706</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -11954,7 +11656,7 @@
         <v>18</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>30</v>
@@ -11962,7 +11664,7 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="O189" s="3" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="P189" s="3" t="s">
         <v>22</v>
@@ -11976,13 +11678,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>968</v>
+        <v>918</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>757</v>
+        <v>707</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3" t="s">
@@ -11997,7 +11699,7 @@
         <v>18</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>27</v>
@@ -12005,7 +11707,7 @@
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
       <c r="O190" s="3" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="P190" s="3" t="s">
         <v>22</v>
@@ -12019,17 +11721,17 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>969</v>
+        <v>919</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -12037,10 +11739,10 @@
         <v>17</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>30</v>
@@ -12048,7 +11750,7 @@
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
       <c r="O191" s="3" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="P191" s="3" t="s">
         <v>22</v>
@@ -12062,17 +11764,17 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>759</v>
+        <v>709</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -12080,10 +11782,10 @@
         <v>17</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>30</v>
@@ -12091,7 +11793,7 @@
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
       <c r="O192" s="3" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="P192" s="3" t="s">
         <v>22</v>
@@ -12105,17 +11807,17 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>760</v>
+        <v>710</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -12123,10 +11825,10 @@
         <v>17</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>30</v>
@@ -12134,7 +11836,7 @@
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
       <c r="O193" s="3" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="P193" s="3" t="s">
         <v>22</v>
@@ -12148,20 +11850,20 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>972</v>
+        <v>922</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>761</v>
+        <v>711</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H194" s="11">
         <v>42138</v>
@@ -12173,19 +11875,15 @@
         <v>18</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M194" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="N194" s="8" t="s">
-        <v>292</v>
-      </c>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
       <c r="O194" s="3" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="P194" s="3" t="s">
         <v>22</v>
@@ -12199,17 +11897,17 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -12220,7 +11918,7 @@
         <v>18</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>30</v>
@@ -12228,7 +11926,7 @@
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
       <c r="O195" s="3" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="P195" s="3" t="s">
         <v>22</v>
@@ -12242,17 +11940,17 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>974</v>
+        <v>924</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>763</v>
+        <v>713</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -12263,7 +11961,7 @@
         <v>18</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>30</v>
@@ -12271,7 +11969,7 @@
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
       <c r="O196" s="3" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="P196" s="3" t="s">
         <v>22</v>
@@ -12285,13 +11983,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>553</v>
+        <v>503</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>764</v>
+        <v>714</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3" t="s">
@@ -12303,18 +12001,18 @@
         <v>17</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
       <c r="O197" s="3" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="P197" s="3" t="s">
         <v>22</v>
@@ -12328,13 +12026,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>554</v>
+        <v>504</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>765</v>
+        <v>715</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3" t="s">
@@ -12349,7 +12047,7 @@
         <v>18</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>20</v>
@@ -12357,7 +12055,7 @@
       <c r="M198" s="7"/>
       <c r="N198" s="7"/>
       <c r="O198" s="3" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="P198" s="3" t="s">
         <v>22</v>
@@ -12371,17 +12069,17 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>555</v>
+        <v>505</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>766</v>
+        <v>716</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -12392,7 +12090,7 @@
         <v>18</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>30</v>
@@ -12400,7 +12098,7 @@
       <c r="M199" s="7"/>
       <c r="N199" s="7"/>
       <c r="O199" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="P199" s="3" t="s">
         <v>22</v>
@@ -12414,20 +12112,20 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>767</v>
+        <v>717</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G200" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H200" s="11">
         <v>43387</v>
@@ -12439,19 +12137,15 @@
         <v>18</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M200" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="N200" s="8" t="s">
-        <v>205</v>
-      </c>
+      <c r="M200" s="8"/>
+      <c r="N200" s="8"/>
       <c r="O200" s="3" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="P200" s="3" t="s">
         <v>22</v>
@@ -12465,17 +12159,17 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>979</v>
+        <v>929</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>768</v>
+        <v>718</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G201" s="3"/>
       <c r="H201" s="3"/>
@@ -12483,10 +12177,10 @@
         <v>17</v>
       </c>
       <c r="J201" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>30</v>
@@ -12494,7 +12188,7 @@
       <c r="M201" s="7"/>
       <c r="N201" s="7"/>
       <c r="O201" s="3" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="P201" s="3" t="s">
         <v>22</v>
@@ -12508,13 +12202,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>558</v>
+        <v>508</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>980</v>
+        <v>930</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>769</v>
+        <v>719</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3" t="s">
@@ -12526,18 +12220,18 @@
         <v>17</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M202" s="7"/>
       <c r="N202" s="7"/>
       <c r="O202" s="3" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="P202" s="3" t="s">
         <v>22</v>
@@ -12551,17 +12245,17 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>559</v>
+        <v>509</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>981</v>
+        <v>931</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>770</v>
+        <v>720</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="G203" s="3"/>
       <c r="H203" s="3"/>
@@ -12572,7 +12266,7 @@
         <v>18</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>30</v>
@@ -12580,7 +12274,7 @@
       <c r="M203" s="7"/>
       <c r="N203" s="7"/>
       <c r="O203" s="3" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="P203" s="3" t="s">
         <v>22</v>
@@ -12594,13 +12288,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>560</v>
+        <v>510</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>982</v>
+        <v>932</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>771</v>
+        <v>721</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3" t="s">
@@ -12612,18 +12306,18 @@
         <v>17</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M204" s="7"/>
       <c r="N204" s="7"/>
       <c r="O204" s="3" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="P204" s="3" t="s">
         <v>22</v>
@@ -12637,13 +12331,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>561</v>
+        <v>511</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>983</v>
+        <v>933</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>772</v>
+        <v>722</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3" t="s">
@@ -12655,10 +12349,10 @@
         <v>17</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L205" s="3" t="s">
         <v>27</v>
@@ -12666,7 +12360,7 @@
       <c r="M205" s="7"/>
       <c r="N205" s="7"/>
       <c r="O205" s="3" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="P205" s="3" t="s">
         <v>22</v>
@@ -12680,17 +12374,17 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>984</v>
+        <v>934</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>773</v>
+        <v>723</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
@@ -12701,7 +12395,7 @@
         <v>18</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>30</v>
@@ -12709,7 +12403,7 @@
       <c r="M206" s="7"/>
       <c r="N206" s="7"/>
       <c r="O206" s="3" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="P206" s="3" t="s">
         <v>22</v>
@@ -12723,20 +12417,20 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>563</v>
+        <v>513</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>985</v>
+        <v>935</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H207" s="9">
         <v>43009</v>
@@ -12748,17 +12442,13 @@
         <v>18</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L207" s="3"/>
-      <c r="M207" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="N207" s="8" t="s">
-        <v>343</v>
-      </c>
+      <c r="M207" s="8"/>
+      <c r="N207" s="8"/>
       <c r="O207" s="3" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="P207" s="3" t="s">
         <v>22</v>
@@ -12772,17 +12462,17 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>986</v>
+        <v>936</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>775</v>
+        <v>725</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
@@ -12790,10 +12480,10 @@
         <v>17</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>30</v>
@@ -12801,7 +12491,7 @@
       <c r="M208" s="7"/>
       <c r="N208" s="7"/>
       <c r="O208" s="3" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="P208" s="3" t="s">
         <v>22</v>
@@ -12815,20 +12505,20 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>565</v>
+        <v>515</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>987</v>
+        <v>937</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>776</v>
+        <v>726</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H209" s="11">
         <v>41652</v>
@@ -12840,19 +12530,15 @@
         <v>18</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M209" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="N209" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="M209" s="8"/>
+      <c r="N209" s="8"/>
       <c r="O209" s="3" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="P209" s="3" t="s">
         <v>22</v>
@@ -12866,17 +12552,17 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>566</v>
+        <v>516</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>988</v>
+        <v>938</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -12887,7 +12573,7 @@
         <v>18</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L210" s="6" t="s">
         <v>30</v>
@@ -12895,7 +12581,7 @@
       <c r="M210" s="7"/>
       <c r="N210" s="7"/>
       <c r="O210" s="3" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="P210" s="3" t="s">
         <v>22</v>
@@ -12904,25 +12590,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>989</v>
+        <v>939</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>778</v>
+        <v>728</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="H211" s="11">
         <v>36390</v>
@@ -12934,17 +12620,13 @@
         <v>18</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M211" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="N211" s="20" t="s">
-        <v>355</v>
-      </c>
+      <c r="M211" s="20"/>
+      <c r="N211" s="20"/>
       <c r="O211" s="21">
         <v>0</v>
       </c>
@@ -12956,20 +12638,20 @@
         <v>210</v>
       </c>
       <c r="B212" s="14" t="s">
-        <v>568</v>
+        <v>518</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>990</v>
+        <v>940</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>779</v>
+        <v>729</v>
       </c>
       <c r="E212" s="14"/>
       <c r="F212" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G212" s="10" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H212" s="22">
         <v>35627</v>
@@ -12981,17 +12663,13 @@
         <v>18</v>
       </c>
       <c r="K212" s="14" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L212" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M212" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="N212" s="10" t="s">
-        <v>357</v>
-      </c>
+      <c r="M212" s="10"/>
+      <c r="N212" s="10"/>
       <c r="O212" s="7">
         <v>0</v>
       </c>
